--- a/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,23%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>-6,24%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 13,64</t>
+          <t>-36,23; 19,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 8,92</t>
+          <t>-10,26; 15,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 19,38</t>
+          <t>-19,7; 6,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-60,34; 101,23</t>
+          <t>-77,52; 156,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 11,2</t>
+          <t>-11,08; 19,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 26,58</t>
+          <t>-21,16; 8,11</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,44</t>
+          <t>16,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>13,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>-16,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>18,19%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 13,53</t>
+          <t>-17,77; 6,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 19,19</t>
+          <t>6,93; 27,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 19,31</t>
+          <t>3,53; 22,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 102,84</t>
+          <t>-57,46; 45,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 28,81</t>
+          <t>9,69; 44,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 29,05</t>
+          <t>4,53; 34,66</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>122,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>20,58%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 8,8</t>
+          <t>-1,03; 11,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 12,99</t>
+          <t>-11,87; 13,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 19,91</t>
+          <t>-0,14; 24,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,97; 289,58</t>
+          <t>-28,38; 673,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 24,89</t>
+          <t>-18,27; 25,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 39,17</t>
+          <t>-0,25; 48,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 9,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 11,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 15,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 84,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,49; 16,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 23,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13,52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 6,07</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 14,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 16,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-41,14; 54,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 22,13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 25,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,163 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,71</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-6,34%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.005853199884394</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.027817174058478</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.093392259773256</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.06344971985209921</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.03456640042765534</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.06651354287947625</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-36,23; 19,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,26; 15,42</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,7; 6,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-77,52; 156,69</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,08; 19,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-21,16; 8,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-36.22664055367017</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.421766997500844</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-20.70324680357685</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.7751995396245837</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.09773180714598324</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.2225654464332193</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.82313533752644</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.28465643112698</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.999478341062408</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.566922778963091</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2113361743335991</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.07057595265952921</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>16,91</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>13,04</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-16,27%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>24,41%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-17,77; 6,21</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,93; 27,09</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>3,53; 22,4</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-57,46; 45,46</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 44,61</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,53; 34,66</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.304644615142904</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>17.23352802518756</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>14.19490635859626</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1627318399637222</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.2491312970095696</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1993349479067312</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>122,81%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>20,58%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-17.76805891574286</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.272019068311818</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.859657268208995</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.5746252171140284</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.09349365025216513</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.06489874777367712</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 11,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 13,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 24,17</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,38; 673,52</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,27; 25,79</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 48,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.214647656861358</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>27.33524129368427</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>23.92668216776049</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.4546223960191549</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.4473308512174047</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3824320218278013</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,172 +775,175 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.140225458153782</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.394251890426147</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>11.76599968553206</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.228065179771277</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.04227105984442238</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.2054829411292929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.032646925948417</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-10.66954530761995</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.4463982239321916</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.2837827801197997</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1623882569068146</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.005085989985957672</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.73258657044234</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.05402464796775</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>24.10053343757018</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>6.735233841977879</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.31593753869982</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.495656385004399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,22%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>10,88%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>13,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,98; 6,07</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 14,08</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 16,54</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-41,14; 54,87</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 22,13</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>2,08; 25,55</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.3475564010983284</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.797462996523608</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.09433425147975</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.02217490587635043</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.1314410578404768</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1468561549047036</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.976959948979827</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.044580024412771</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.225651766200365</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.411436535655627</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01482160442430689</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.03149670994887891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.074572071168002</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.95260717587296</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.40652137120692</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5487168650744418</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2634826102385706</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2734262464771218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
